--- a/wolf/Excel/Effects_特效.xlsx
+++ b/wolf/Excel/Effects_特效.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>Int</t>
   </si>
@@ -82,7 +82,19 @@
     <t>雪花</t>
   </si>
   <si>
+    <t>0|0|50|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|50|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|5|0|0|0|0.5|0.5|2</t>
+  </si>
+  <si>
     <t>0|0|120|0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|100|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>星座</t>
@@ -104,6 +116,9 @@
   </si>
   <si>
     <t>音符</t>
+  </si>
+  <si>
+    <t>0|0|10|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>光环</t>
@@ -1348,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U194"/>
+  <dimension ref="A1:U214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0666666666667" defaultRowHeight="16.5"/>
@@ -1675,9 +1690,9 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4">
-        <v>144093</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>464265</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4">
@@ -1704,14 +1719,12 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="4">
-        <v>220840</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>266517</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1733,16 +1746,16 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" ht="17.25" spans="1:21">
+    <row r="13" spans="1:21">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="7">
-        <v>485354</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4">
+        <v>266518</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1768,14 +1781,12 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="4">
-        <v>220841</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>266519</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1801,14 +1812,12 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="4">
-        <v>220842</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>266520</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1834,14 +1843,12 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="4">
-        <v>220843</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>266521</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1867,14 +1874,12 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="4">
+        <v>439411</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="4">
-        <v>220844</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1900,14 +1905,12 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="4">
-        <v>220845</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>484531</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1933,14 +1936,12 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="4">
-        <v>220846</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>144088</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1966,13 +1967,11 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="4">
-        <v>220847</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>439415</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="4">
@@ -1999,14 +1998,12 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="4">
-        <v>220848</v>
+        <v>144093</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2032,14 +2029,12 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="4">
-        <v>220849</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>19</v>
+        <v>326212</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2065,14 +2060,12 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="4">
-        <v>220850</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>326224</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2098,14 +2091,12 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="4">
-        <v>220851</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>19</v>
+        <v>383667</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2131,14 +2122,12 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="4">
-        <v>220041</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>19</v>
+        <v>383676</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2164,14 +2153,12 @@
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="4">
-        <v>220469</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>19</v>
+        <v>386040</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2197,14 +2184,12 @@
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="4">
+        <v>394667</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C27" s="4">
-        <v>31645</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2230,14 +2215,12 @@
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="4">
-        <v>4366</v>
+        <v>394678</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -2263,14 +2246,14 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4">
+        <v>220840</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C29" s="4">
-        <v>4367</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -2292,18 +2275,16 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" ht="17.25" spans="1:21">
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="7">
+        <v>485354</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4368</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2330,13 +2311,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4">
-        <v>32240</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>220841</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2363,13 +2344,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4">
-        <v>59956</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>220842</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -2395,14 +2376,14 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>26</v>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="4">
-        <v>73402</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>220843</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -2429,13 +2410,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C34" s="4">
-        <v>88762</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>220844</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -2462,13 +2443,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4">
-        <v>88773</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>220845</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -2494,14 +2475,14 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="4">
-        <v>89073</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>220846</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -2528,13 +2509,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4">
-        <v>89109</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>220847</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -2561,13 +2542,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C38" s="4">
-        <v>89111</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>220848</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -2593,14 +2574,14 @@
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>29</v>
+      <c r="B39" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C39" s="4">
-        <v>89112</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>220849</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -2627,13 +2608,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4">
-        <v>89122</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>220850</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -2660,13 +2641,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4">
-        <v>113903</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>220851</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -2692,14 +2673,14 @@
       <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>28</v>
+      <c r="B42" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C42" s="4">
-        <v>113913</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>220041</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -2726,13 +2707,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4">
-        <v>113907</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>220469</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -2759,10 +2740,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C44" s="4">
-        <v>119917</v>
+        <v>31645</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -2792,10 +2773,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4">
-        <v>130776</v>
+        <v>4366</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
@@ -2825,10 +2806,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4">
-        <v>141655</v>
+        <v>4367</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -2858,10 +2839,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4">
-        <v>141657</v>
+        <v>4368</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -2890,14 +2871,12 @@
       <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="4">
-        <v>142753</v>
+        <v>144084</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -2923,11 +2902,9 @@
       <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="4">
-        <v>142751</v>
+        <v>146786</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
@@ -2956,14 +2933,12 @@
       <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="4">
-        <v>142951</v>
+        <v>144083</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -2990,10 +2965,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4">
-        <v>156399</v>
+        <v>32240</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -3022,9 +2997,11 @@
       <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C52" s="4">
-        <v>157113</v>
+        <v>59956</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -3053,9 +3030,11 @@
       <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C53" s="4">
-        <v>157118</v>
+        <v>73402</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
@@ -3084,9 +3063,11 @@
       <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C54" s="4">
-        <v>157119</v>
+        <v>88762</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -3116,10 +3097,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C55" s="4">
-        <v>271322</v>
+        <v>88773</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -3149,10 +3130,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C56" s="4">
-        <v>311092</v>
+        <v>89073</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>9</v>
@@ -3182,10 +3163,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C57" s="4">
-        <v>318586</v>
+        <v>89109</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -3214,9 +3195,11 @@
       <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C58" s="4">
-        <v>501294</v>
+        <v>89111</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
@@ -3246,10 +3229,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C59" s="4">
-        <v>127013</v>
+        <v>89112</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -3278,9 +3261,11 @@
       <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C60" s="4">
-        <v>146328</v>
+        <v>89122</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>9</v>
@@ -3309,9 +3294,11 @@
       <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C61" s="4">
-        <v>146328</v>
+        <v>113903</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
@@ -3340,9 +3327,11 @@
       <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C62" s="4">
-        <v>146753</v>
+        <v>113913</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
@@ -3372,10 +3361,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C63" s="4">
-        <v>146754</v>
+        <v>113907</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -3405,10 +3394,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C64" s="4">
-        <v>144082</v>
+        <v>119917</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
@@ -3438,10 +3427,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C65" s="4">
-        <v>361275</v>
+        <v>130776</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>9</v>
@@ -3467,11 +3456,21 @@
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="4">
+        <v>62</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="4">
+        <v>141655</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -3490,11 +3489,21 @@
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="4">
+        <v>63</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="4">
+        <v>141657</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3513,11 +3522,21 @@
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="4">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="4">
+        <v>142753</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3536,11 +3555,21 @@
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="4">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="4">
+        <v>142751</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -3559,11 +3588,21 @@
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="4">
+        <v>66</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="4">
+        <v>142951</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -3582,11 +3621,21 @@
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="4">
+        <v>67</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="4">
+        <v>156399</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -3605,11 +3654,19 @@
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="2"/>
+      <c r="A72" s="4">
+        <v>68</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="C72" s="4">
+        <v>157113</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -3628,11 +3685,19 @@
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="2"/>
+      <c r="A73" s="4">
+        <v>69</v>
+      </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="C73" s="4">
+        <v>157118</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -3651,11 +3716,19 @@
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="2"/>
+      <c r="A74" s="4">
+        <v>70</v>
+      </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="C74" s="4">
+        <v>157119</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -3674,11 +3747,21 @@
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="4">
+        <v>71</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="4">
+        <v>271322</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -3697,11 +3780,21 @@
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="4">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4">
+        <v>311092</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -3720,11 +3813,21 @@
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="4">
+        <v>73</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="4">
+        <v>318586</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -3743,11 +3846,19 @@
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="2"/>
+      <c r="A78" s="4">
+        <v>74</v>
+      </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="C78" s="4">
+        <v>501294</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -3766,11 +3877,21 @@
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="4">
+        <v>75</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="4">
+        <v>127013</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3789,11 +3910,19 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="2"/>
+      <c r="A80" s="4">
+        <v>76</v>
+      </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="C80" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3812,11 +3941,19 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="2"/>
+      <c r="A81" s="4">
+        <v>77</v>
+      </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="C81" s="4">
+        <v>146328</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3835,11 +3972,19 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="2"/>
+      <c r="A82" s="4">
+        <v>78</v>
+      </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="C82" s="4">
+        <v>146753</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3858,11 +4003,21 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="4">
+        <v>79</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="4">
+        <v>146754</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3881,11 +4036,21 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="4">
+        <v>80</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="4">
+        <v>144082</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3904,11 +4069,21 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="4">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="4">
+        <v>361275</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -6433,6 +6608,466 @@
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
     </row>
+    <row r="195" spans="1:21">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2"/>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2"/>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2"/>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="2"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2"/>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2"/>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2"/>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2"/>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2"/>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2"/>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
